--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Description</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Hobby king</t>
+  </si>
+  <si>
+    <t>Total cost</t>
   </si>
 </sst>
 </file>
@@ -84,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +107,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,15 +479,15 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>IF($D2=F$1,$C2,"")</f>
         <v>243</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="1" t="str">
         <f>IF($D2=G$1,$C2,"")</f>
         <v/>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="1" t="str">
         <f>IF($D2=H$1,$C2,"")</f>
         <v/>
       </c>
@@ -474,15 +505,15 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:H18" si="0">IF($D3=F$1,$C3,"")</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:H34" si="0">IF($D3=F$1,$C3,"")</f>
         <v>24.94</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H3" t="str">
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -500,15 +531,15 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>43.58</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" t="str">
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -526,279 +557,464 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" t="str">
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" t="str">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" t="str">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>92.75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>92.75</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" t="str">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" t="str">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" t="str">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" t="str">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" t="str">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" t="str">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" t="str">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" t="str">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="str">
-        <f t="shared" ref="F19:H26" si="1">IF($D19=F$1,$C19,"")</f>
-        <v/>
-      </c>
-      <c r="G19" t="str">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F2:F34)</f>
+        <v>322.21999999999997</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:H36" si="1">SUM(G2:G34)</f>
+        <v>107.75</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Description</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Total cost</t>
+  </si>
+  <si>
+    <t>Canon Elph 330 S</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>RC 6 channels</t>
+  </si>
+  <si>
+    <t>StockRC</t>
+  </si>
+  <si>
+    <t>Battery charger</t>
+  </si>
+  <si>
+    <t>Servo wire x5</t>
   </si>
 </sst>
 </file>
@@ -433,7 +451,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,9 +641,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>167.13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>167.13</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -637,9 +667,21 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>71.569999999999993</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -651,9 +693,21 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>68.62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>68.62</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -665,9 +719,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>14.54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>14.54</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1006,7 +1072,7 @@
       </c>
       <c r="F36">
         <f>SUM(F2:F34)</f>
-        <v>322.21999999999997</v>
+        <v>644.07999999999993</v>
       </c>
       <c r="G36">
         <f t="shared" ref="G36:H36" si="1">SUM(G2:G34)</f>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Description</t>
   </si>
@@ -94,6 +94,66 @@
   </si>
   <si>
     <t>Servo wire x5</t>
+  </si>
+  <si>
+    <t>Hobby King</t>
+  </si>
+  <si>
+    <t>Bixler 2</t>
+  </si>
+  <si>
+    <t>Hobby Town</t>
+  </si>
+  <si>
+    <t>Eflite 2200 batt</t>
+  </si>
+  <si>
+    <t>Spektrum 6 Ch Rec</t>
+  </si>
+  <si>
+    <t>Stock RC</t>
+  </si>
+  <si>
+    <t>Pistola Silicona</t>
+  </si>
+  <si>
+    <t>Digital Multimeter</t>
+  </si>
+  <si>
+    <t>Flamewheel KIT</t>
+  </si>
+  <si>
+    <t>Shock Absorber</t>
+  </si>
+  <si>
+    <t>Lipo 3300mAh</t>
+  </si>
+  <si>
+    <t>Landing Gear</t>
+  </si>
+  <si>
+    <t>Battery Connector</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Drawer + Divider</t>
+  </si>
+  <si>
+    <t>Public Lab</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>SD Card 16gb</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>APM Chino</t>
   </si>
 </sst>
 </file>
@@ -448,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:H34" si="0">IF($D3=F$1,$C3,"")</f>
+        <f t="shared" ref="F3:H35" si="0">IF($D3=F$1,$C3,"")</f>
         <v>24.94</v>
       </c>
       <c r="G3" s="1" t="str">
@@ -745,13 +805,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>92.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>92.75</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -759,13 +831,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -773,13 +857,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -787,9 +883,21 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -801,9 +909,21 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>16.809999999999999</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -814,10 +934,22 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -828,10 +960,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>11.29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>11.29</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -842,10 +986,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>35.950000000000003</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -856,10 +1012,22 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -870,10 +1038,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>5.42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>5.42</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -884,10 +1064,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -898,10 +1090,22 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -912,10 +1116,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>19.28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>19.28</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -926,10 +1142,22 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -940,7 +1168,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -954,7 +1182,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -968,7 +1196,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -982,7 +1210,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -996,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1010,7 +1238,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1024,7 +1252,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1038,7 +1266,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1052,7 +1280,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1066,20 +1294,426 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
+        <f t="shared" ref="F36:H63" si="1">IF($D36=F$1,$C36,"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
         <v>19</v>
       </c>
-      <c r="F36">
+      <c r="F64">
         <f>SUM(F2:F34)</f>
-        <v>644.07999999999993</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ref="G36:H36" si="1">SUM(G2:G34)</f>
-        <v>107.75</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
+        <v>1077.7299999999998</v>
+      </c>
+      <c r="G64">
+        <f>SUM(G2:G34)</f>
+        <v>265.5</v>
+      </c>
+      <c r="H64">
+        <f>SUM(H2:H34)</f>
         <v>0</v>
       </c>
     </row>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="5445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>Description</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>APM Chino</t>
+  </si>
+  <si>
+    <t>Radio Chino</t>
+  </si>
+  <si>
+    <t>Cama s100 Canon</t>
+  </si>
+  <si>
+    <t>3DR</t>
+  </si>
+  <si>
+    <t>Ardupilot</t>
+  </si>
+  <si>
+    <t>Camara ELPH s130</t>
+  </si>
+  <si>
+    <t>Radio Spektrum</t>
+  </si>
+  <si>
+    <t>Speed Controller</t>
   </si>
 </sst>
 </file>
@@ -510,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,13 +1190,25 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>21.8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1183,13 +1216,25 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>156.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>156.6</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1197,6 +1242,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1205,12 +1262,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1219,12 +1288,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1233,12 +1314,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1247,9 +1340,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1710,11 +1803,11 @@
       </c>
       <c r="G64">
         <f>SUM(G2:G34)</f>
-        <v>265.5</v>
+        <v>443.9</v>
       </c>
       <c r="H64">
         <f>SUM(H2:H34)</f>
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="5445"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>Description</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Speed Controller</t>
+  </si>
+  <si>
+    <t>Newegg</t>
+  </si>
+  <si>
+    <t>16GB Ram</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Graphics Card</t>
   </si>
 </sst>
 </file>
@@ -531,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,34 +1358,58 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>143</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1387,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1401,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="str">
         <f t="shared" ref="F36:H63" si="1">IF($D36=F$1,$C36,"")</f>
         <v/>
@@ -1415,7 +1451,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1429,7 +1465,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1443,7 +1479,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1457,7 +1493,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1471,7 +1507,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1485,7 +1521,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1499,7 +1535,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1513,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1527,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1541,7 +1577,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1555,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1569,7 +1605,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1803,7 +1839,7 @@
       </c>
       <c r="G64">
         <f>SUM(G2:G34)</f>
-        <v>443.9</v>
+        <v>746.9</v>
       </c>
       <c r="H64">
         <f>SUM(H2:H34)</f>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Graphics Card</t>
+  </si>
+  <si>
+    <t>HomeDepot</t>
+  </si>
+  <si>
+    <t>Solder + Tools</t>
   </si>
 </sst>
 </file>
@@ -543,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,9 +1416,21 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>55.63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>55.63</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1424,9 +1442,21 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1835,7 +1865,7 @@
       </c>
       <c r="F64">
         <f>SUM(F2:F34)</f>
-        <v>1077.7299999999998</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="G64">
         <f>SUM(G2:G34)</f>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>Description</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Solder + Tools</t>
+  </si>
+  <si>
+    <t>amizon prime membership</t>
+  </si>
+  <si>
+    <t>trainner fixed wing</t>
+  </si>
+  <si>
+    <t>quad copter</t>
   </si>
 </sst>
 </file>
@@ -208,12 +217,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -243,9 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,13 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1468,6 +1484,15 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="1" t="str">
         <f t="shared" ref="F36:H63" si="1">IF($D36=F$1,$C36,"")</f>
         <v/>
@@ -1476,12 +1501,21 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1490,12 +1524,21 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1504,9 +1547,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,8 +1915,8 @@
         <v>746.9</v>
       </c>
       <c r="H64">
-        <f>SUM(H2:H34)</f>
-        <v>564</v>
+        <f>SUM(H2:H63)</f>
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Description</t>
   </si>
@@ -201,7 +201,28 @@
     <t>trainner fixed wing</t>
   </si>
   <si>
-    <t>quad copter</t>
+    <t>Composite Rod and Bass rod (2/20/2015)</t>
+  </si>
+  <si>
+    <t>Hobby Town USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amizon Prime </t>
+  </si>
+  <si>
+    <t>Quad Copter (2/23/2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doller General </t>
+  </si>
+  <si>
+    <t>Making Tape (2/20/2015)</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>MDF and Wood planks used for Manufacturing the foam cutter table (2/23/2015</t>
   </si>
 </sst>
 </file>
@@ -258,10 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,14 +587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,6 +1507,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
@@ -1508,6 +1533,9 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="2">
@@ -1531,10 +1559,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="2">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3">
+        <v>83.29</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1549,10 +1580,22 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.29</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>5.31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1561,12 +1604,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>5.31</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>2.04</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1575,12 +1630,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.04</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>62.13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1589,9 +1656,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>62.13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1916,7 +1983,7 @@
       </c>
       <c r="H64">
         <f>SUM(H2:H63)</f>
-        <v>844</v>
+        <v>916.76999999999987</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -587,14 +587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Agriculture\trunk\Cost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="5445"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -223,6 +228,45 @@
   </si>
   <si>
     <t>MDF and Wood planks used for Manufacturing the foam cutter table (2/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollar General </t>
+  </si>
+  <si>
+    <t>20 Pk batteries (3/6/2015)</t>
+  </si>
+  <si>
+    <t>Filing Tools</t>
+  </si>
+  <si>
+    <t>Expoy Cure &amp; Bass Wood&amp; Carbon Tube</t>
+  </si>
+  <si>
+    <t>4 mm connectors &amp; carbon tube</t>
+  </si>
+  <si>
+    <t>Purple Foam 2x2 and Mini scraping blade Blades</t>
+  </si>
+  <si>
+    <t>Lexan &amp; Cutting tool for laxan</t>
+  </si>
+  <si>
+    <t>Tape - black</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>total spent</t>
+  </si>
+  <si>
+    <t>connectors (1/27/2015)</t>
+  </si>
+  <si>
+    <t>SD Card</t>
   </si>
 </sst>
 </file>
@@ -294,6 +338,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -341,7 +388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,8 +1585,9 @@
       <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2">
-        <v>100</v>
+      <c r="C37" s="3">
+        <f>21.43+85.71</f>
+        <v>107.13999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1554,7 +1602,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>107.13999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1662,6 +1710,18 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1670,12 +1730,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>7.47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1684,12 +1756,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>7.47</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>9.06</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1698,12 +1782,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>9.06</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>17.12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1712,12 +1808,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>17.12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46">
+        <v>10.16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1726,12 +1834,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>10.16</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>9.61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1740,12 +1860,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>9.61</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>6.97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1754,12 +1886,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1768,12 +1912,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>3.24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1782,12 +1938,24 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1796,12 +1964,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1815,7 +1983,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1829,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1843,7 +2011,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1857,7 +2025,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1871,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1885,7 +2053,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1899,7 +2067,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1913,7 +2081,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1927,7 +2095,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1941,7 +2109,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1955,7 +2123,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1969,7 +2137,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +2151,18 @@
       </c>
       <c r="H64">
         <f>SUM(H2:H63)</f>
-        <v>916.76999999999987</v>
+        <v>1009.9599999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>SUM(F64:H64)</f>
+        <v>2890.2199999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Agriculture\trunk\Cost\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="5445"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -388,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +630,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,6 +1965,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <f>5.77+5.77*0.0715</f>
+        <v>6.1825549999999998</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1978,9 +1983,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1825549999999998</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,7 +2156,7 @@
       </c>
       <c r="H64">
         <f>SUM(H2:H63)</f>
-        <v>1009.9599999999998</v>
+        <v>1016.1425549999998</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
@@ -2162,7 +2167,7 @@
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>SUM(F64:H64)</f>
-        <v>2890.2199999999993</v>
+        <v>2896.4025549999997</v>
       </c>
     </row>
   </sheetData>

--- a/Cost/Accountability.xlsx
+++ b/Cost/Accountability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>Description</t>
   </si>
@@ -262,6 +262,42 @@
   </si>
   <si>
     <t>SD Card</t>
+  </si>
+  <si>
+    <t>Calibre + Meter</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Battery Conector</t>
+  </si>
+  <si>
+    <t>Dillons</t>
+  </si>
+  <si>
+    <t>Bubble Wrap + Tape</t>
+  </si>
+  <si>
+    <t>ACE hardware</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Bubble Wrap + Box</t>
+  </si>
+  <si>
+    <t>Spray</t>
+  </si>
+  <si>
+    <t>GoPro gimbal</t>
+  </si>
+  <si>
+    <t>FEDEX</t>
+  </si>
+  <si>
+    <t>Bixler Box</t>
   </si>
 </sst>
 </file>
@@ -629,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,9 +2025,21 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>14.93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>14.93</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2003,9 +2051,21 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <v>34.26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>34.26</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2017,9 +2077,21 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>4.28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>4.28</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2031,9 +2103,21 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <v>6.93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>6.93</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2045,9 +2129,21 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57">
+        <v>4.24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>4.24</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2059,9 +2155,21 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <v>6.69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>6.69</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2073,9 +2181,21 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>9.92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>9.92</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2087,9 +2207,21 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2101,9 +2233,21 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61">
+        <v>67.98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>67.98</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2115,9 +2259,21 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2147,11 +2303,11 @@
         <v>19</v>
       </c>
       <c r="F64">
-        <f>SUM(F2:F34)</f>
-        <v>1133.3599999999999</v>
+        <f>SUM(F2:F63)</f>
+        <v>1314.2400000000002</v>
       </c>
       <c r="G64">
-        <f>SUM(G2:G34)</f>
+        <f>SUM(G2:G63)</f>
         <v>746.9</v>
       </c>
       <c r="H64">
@@ -2167,7 +2323,7 @@
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F68">
         <f>SUM(F64:H64)</f>
-        <v>2896.4025549999997</v>
+        <v>3077.2825550000002</v>
       </c>
     </row>
   </sheetData>
